--- a/access/main_login_class/myreport.xlsx
+++ b/access/main_login_class/myreport.xlsx
@@ -14,27 +14,57 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="7">
-  <si>
-    <t>PROM_ID</t>
-  </si>
-  <si>
-    <t>PROM_TYPE_ID</t>
-  </si>
-  <si>
-    <t>PROM_CREATED_BY</t>
-  </si>
-  <si>
-    <t>PROM_CREATED_ON</t>
-  </si>
-  <si>
-    <t>PROM_LINE_NO</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
+  <si>
+    <t>COP_ID</t>
+  </si>
+  <si>
+    <t>COP_DESC</t>
+  </si>
+  <si>
+    <t>COP_DISCOUNT_VAL</t>
+  </si>
+  <si>
+    <t>COP_DISCOUNT_PERCENT</t>
+  </si>
+  <si>
+    <t>COP_SERIAL_COUNT</t>
+  </si>
+  <si>
+    <t>COP_MULTI_USE</t>
+  </si>
+  <si>
+    <t>COP_MULTI_USE_COUNT</t>
+  </si>
+  <si>
+    <t>COP_CREAED_ON</t>
+  </si>
+  <si>
+    <t>COP_CHANGED_ON</t>
+  </si>
+  <si>
+    <t>COP_VALID_FROM</t>
+  </si>
+  <si>
+    <t>COP_VALID_TO</t>
+  </si>
+  <si>
+    <t>COP_STATUS</t>
+  </si>
+  <si>
+    <t>رمضان كريم</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>13-06-2021</t>
+  </si>
+  <si>
+    <t>14-06-2021</t>
   </si>
   <si>
     <t>1</t>
-  </si>
-  <si>
-    <t>2021-04-27</t>
   </si>
 </sst>
 </file>
@@ -392,13 +422,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A3:G7"/>
+  <dimension ref="A3:M4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:13">
       <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
@@ -409,105 +439,69 @@
         <v>2</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>0</v>
       </c>
       <c r="B4">
-        <v>21</v>
-      </c>
-      <c r="C4">
+        <v>104</v>
+      </c>
+      <c r="C4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4">
+        <v>14.5</v>
+      </c>
+      <c r="F4">
         <v>1</v>
       </c>
-      <c r="D4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E4" t="s">
-        <v>5</v>
-      </c>
-      <c r="F4" t="s">
-        <v>6</v>
-      </c>
-      <c r="G4">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="1">
-        <v>1</v>
-      </c>
-      <c r="B5">
-        <v>21</v>
-      </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="D5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E5" t="s">
-        <v>5</v>
-      </c>
-      <c r="F5" t="s">
-        <v>6</v>
-      </c>
-      <c r="G5">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="1">
-        <v>2</v>
-      </c>
-      <c r="B6">
-        <v>21</v>
-      </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-      <c r="D6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E6" t="s">
-        <v>5</v>
-      </c>
-      <c r="F6" t="s">
-        <v>6</v>
-      </c>
-      <c r="G6">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="1">
-        <v>3</v>
-      </c>
-      <c r="B7">
-        <v>21</v>
-      </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-      <c r="D7" t="s">
-        <v>5</v>
-      </c>
-      <c r="E7" t="s">
-        <v>5</v>
-      </c>
-      <c r="F7" t="s">
-        <v>6</v>
-      </c>
-      <c r="G7">
-        <v>40</v>
+      <c r="G4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4" t="s">
+        <v>14</v>
+      </c>
+      <c r="J4" t="s">
+        <v>15</v>
+      </c>
+      <c r="K4" t="s">
+        <v>14</v>
+      </c>
+      <c r="L4" t="s">
+        <v>14</v>
+      </c>
+      <c r="M4" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
